--- a/DBModel.xlsx
+++ b/DBModel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\Net Banking Project\NetBanking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MY DOCUMENTS\Project Gladiator\NetBanking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A31932-B0C9-46A1-BF5C-52291DB1409F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB50EFF-9CE6-4377-9ABB-FD370D8F3AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>ModeOfTransaction</t>
   </si>
   <si>
-    <t>Pk</t>
-  </si>
-  <si>
     <t>Modes</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Nick name (Optional)</t>
   </si>
   <si>
-    <t>Mode of Transaction</t>
-  </si>
-  <si>
     <t>Remark</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>Permanent Pin code</t>
   </si>
   <si>
-    <t>NetBanking ( FK )</t>
-  </si>
-  <si>
     <t>Debit Card  ( FK )</t>
   </si>
   <si>
@@ -202,6 +193,15 @@
   </si>
   <si>
     <t>Transaction amount</t>
+  </si>
+  <si>
+    <t>User ID(FK)</t>
+  </si>
+  <si>
+    <t>ModeID (Pk)</t>
+  </si>
+  <si>
+    <t>ModeID(FK)</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,7 +575,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -643,13 +643,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -667,7 +667,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -676,7 +676,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -685,7 +685,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -694,7 +694,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
@@ -703,16 +703,16 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
@@ -721,7 +721,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
@@ -730,7 +730,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -739,7 +739,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
@@ -748,7 +748,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
@@ -757,16 +757,16 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
@@ -796,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -805,43 +805,43 @@
         <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -851,48 +851,48 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
@@ -901,27 +901,27 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
@@ -930,10 +930,10 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -941,26 +941,26 @@
         <v>14</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>5</v>
@@ -977,28 +977,28 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>5</v>
@@ -1007,7 +1007,7 @@
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>5</v>
@@ -1016,16 +1016,16 @@
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
@@ -1034,16 +1034,16 @@
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>5</v>
